--- a/Modelos em Python/1 dia a frente(7, 1, 7) (2, 1, 1, 12) 18 a 21h Erros validação.xlsx
+++ b/Modelos em Python/1 dia a frente(7, 1, 7) (2, 1, 1, 12) 18 a 21h Erros validação.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.32034934358496</v>
+        <v>26.40357662298977</v>
       </c>
       <c r="C11" t="n">
-        <v>79.90822983177659</v>
+        <v>80.20361915658957</v>
       </c>
       <c r="D11" t="n">
-        <v>82.75683131374588</v>
+        <v>82.95949353183957</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>26.71583474196096</v>
+        <v>27.39383355203919</v>
       </c>
       <c r="C12" t="n">
-        <v>81.2009488250695</v>
+        <v>83.75296415456759</v>
       </c>
       <c r="D12" t="n">
-        <v>83.89045190082817</v>
+        <v>85.8395269239634</v>
       </c>
     </row>
     <row r="13">
